--- a/016/T3B/T3B.xlsx
+++ b/016/T3B/T3B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\016\T3B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D8446-7856-49DB-97BF-918488152762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA31B55-3AF3-42FC-8D67-E910AF1ED0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDFC7A73-9C8C-480E-ABE4-F0A2AC96A04A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{BDFC7A73-9C8C-480E-ABE4-F0A2AC96A04A}"/>
   </bookViews>
   <sheets>
     <sheet name="ω" sheetId="1" r:id="rId1"/>
@@ -1198,10 +1198,10 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,13 +1265,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1592,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,10 +1693,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,12 +1750,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,6 +1758,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1754,19 +1786,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1781,43 +1804,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2922,6 +2912,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$5:$G$18</c:f>
@@ -5119,6 +5195,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$5:$AT$17</c:f>
@@ -5710,6 +5872,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$5:$AT$17</c:f>
@@ -8076,6 +8324,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$62:$AT$81</c:f>
@@ -8709,6 +9043,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$62:$AT$81</c:f>
@@ -9341,6 +9761,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$5:$G$18</c:f>
@@ -9478,6 +9984,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$5:$AT$17</c:f>
@@ -9609,6 +10201,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$62:$G$65</c:f>
@@ -9686,6 +10364,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$62:$AT$81</c:f>
@@ -10125,8 +10889,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76071350198634491"/>
-          <c:y val="0.60180127108501202"/>
+          <c:x val="0.7578525810702742"/>
+          <c:y val="0.6087737916676732"/>
           <c:w val="0.18188607433261886"/>
           <c:h val="0.24257282439378444"/>
         </c:manualLayout>
@@ -11291,6 +12055,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$5:$G$18</c:f>
@@ -11428,6 +12278,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$5:$AT$17</c:f>
@@ -11559,6 +12495,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$62:$G$65</c:f>
@@ -11636,6 +12658,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$AT$62:$AT$81</c:f>
@@ -12276,6 +13384,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$94:$G$113</c:f>
@@ -12899,6 +14093,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$94:$G$113</c:f>
@@ -15929,6 +17209,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>n!$K$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>n!$K$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>n!$D$4:$D$8</c:f>
@@ -17150,6 +18510,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>n!$K$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>n!$K$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>n!$D$4:$D$8</c:f>
@@ -18370,6 +19810,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ω!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.2831853071795862</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ω!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.2831853071795862</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ω!$Q$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ω!$Q$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>ω!$C$6:$C$29</c:f>
@@ -18985,6 +20511,104 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>S!$M$8:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4402649398590767E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.183627878423159E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0840704496667311E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>S!$M$8:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4402649398590767E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.183627878423159E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0840704496667311E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>S!$M$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>S!$M$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>S!$E$4:$E$6</c:f>
@@ -20234,6 +21858,104 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>S!$M$8:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4402649398590767E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.183627878423159E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0840704496667311E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>S!$M$8:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4402649398590767E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.183627878423159E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0840704496667311E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>S!$M$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>S!$M$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>S!$E$4:$E$6</c:f>
@@ -21531,6 +23253,128 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$25:$P$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-8.5122479223182154E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12933303715685526</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-0.11138301089958536</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9899616999619407E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0760497374970924E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.11702388961255408</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$25:$P$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-8.5122479223182154E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12933303715685526</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-0.11138301089958536</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9899616999619407E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0760497374970924E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.11702388961255408</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'cos(θ)'!$E$4:$E$10</c:f>
@@ -21738,7 +23582,6 @@
         <c:axId val="2044696496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-3.0000000000000009E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -21874,7 +23717,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2044694000"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -22887,6 +24730,128 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$25:$P$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-8.5122479223182154E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12933303715685526</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-0.11138301089958536</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9899616999619407E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0760497374970924E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.11702388961255408</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$25:$P$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-8.5122479223182154E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12933303715685526</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-0.11138301089958536</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9899616999619407E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0760497374970924E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.11702388961255408</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'cos(θ)'!$P$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'cos(θ)'!$E$4:$E$10</c:f>
@@ -23444,6 +25409,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ω!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.2831853071795862</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ω!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.2831853071795862</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ω!$Q$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ω!$Q$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>ω!$C$6:$C$29</c:f>
@@ -27122,6 +29173,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>i0!$G$5:$G$18</c:f>
@@ -49293,8 +51430,8 @@
   </sheetPr>
   <dimension ref="B2:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+    <sheetView topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB65" sqref="AB65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49343,17 +51480,17 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="1">
         <v>1E-4</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="39"/>
+      <c r="P2" s="48"/>
       <c r="Q2" s="38">
         <f>M2*SQRT(2)</f>
         <v>1.4142135623730951E-4</v>
@@ -49376,10 +51513,10 @@
       <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="39"/>
+      <c r="P3" s="48"/>
       <c r="Q3" s="1">
         <v>1E-4</v>
       </c>
@@ -49392,22 +51529,22 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="O4" s="39" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="O4" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="39"/>
+      <c r="P4" s="48"/>
       <c r="Q4" s="29">
         <f>Q3*SQRT(2)</f>
         <v>1.4142135623730951E-4</v>
@@ -49497,18 +51634,18 @@
         <f>K6-L6</f>
         <v>-3.4987500489275236E-3</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="Y6" s="39" t="s">
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="Y6" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -50677,13 +52814,13 @@
         <f>SQRT((Q4^2)+(Q2^2))</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P47" s="45" t="s">
+      <c r="P47" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J48" s="1">
@@ -50694,14 +52831,14 @@
         <f>$K$47</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P48" s="40" t="s">
+      <c r="P48" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="40"/>
-      <c r="S48" s="46" t="s">
+      <c r="Q48" s="49"/>
+      <c r="S48" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T48" s="46"/>
+      <c r="T48" s="55"/>
     </row>
     <row r="49" spans="10:20" ht="18" x14ac:dyDescent="0.25">
       <c r="J49" s="1">
@@ -50824,10 +52961,10 @@
       <c r="Q54" s="1">
         <v>0.75</v>
       </c>
-      <c r="R54" s="44" t="s">
+      <c r="R54" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="S54" s="44"/>
+      <c r="S54" s="53"/>
       <c r="T54" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -50847,10 +52984,10 @@
       <c r="Q55" s="1">
         <v>364</v>
       </c>
-      <c r="R55" s="44" t="s">
+      <c r="R55" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="S55" s="44"/>
+      <c r="S55" s="53"/>
       <c r="T55" s="22">
         <f>T54^2*PI()/4</f>
         <v>1.3202543126711107E-3</v>
@@ -50865,10 +53002,10 @@
         <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="R56" s="44" t="s">
+      <c r="R56" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="S56" s="44"/>
+      <c r="S56" s="53"/>
       <c r="T56" s="1">
         <v>300</v>
       </c>
@@ -51015,6 +53152,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O6:R6"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
@@ -51024,11 +53166,6 @@
     <mergeCell ref="S48:T48"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="R55:S55"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51044,8 +53181,8 @@
   </sheetPr>
   <dimension ref="A1:BV147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="BB42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BJ44" sqref="BJ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51179,88 +53316,88 @@
     </row>
     <row r="2" spans="1:74" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="S2" s="39" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="S2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="AC2" s="39" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="AC2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
       <c r="AM2" s="17"/>
       <c r="AN2" s="16"/>
-      <c r="AQ2" s="48" t="s">
+      <c r="AQ2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BF2" s="39" t="s">
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BF2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BO2" s="39" t="s">
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="48"/>
+      <c r="BI2" s="48"/>
+      <c r="BO2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="39"/>
-      <c r="BQ2" s="39"/>
-      <c r="BR2" s="39"/>
+      <c r="BP2" s="48"/>
+      <c r="BQ2" s="48"/>
+      <c r="BR2" s="48"/>
       <c r="BV2" s="17"/>
     </row>
     <row r="3" spans="1:74" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="46" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
       <c r="S3" s="4" t="s">
         <v>3</v>
       </c>
@@ -51289,30 +53426,30 @@
       </c>
       <c r="AM3" s="17"/>
       <c r="AN3" s="16"/>
-      <c r="AQ3" s="39" t="s">
+      <c r="AQ3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="39" t="s">
+      <c r="AR3" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="AS3" s="39" t="s">
+      <c r="AS3" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AT3" s="39" t="s">
+      <c r="AT3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="AU3" s="49" t="s">
+      <c r="AU3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="47" t="s">
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
       <c r="BF3" s="4" t="s">
         <v>3</v>
       </c>
@@ -51343,10 +53480,10 @@
     </row>
     <row r="4" spans="1:74" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="3" t="s">
         <v>86</v>
       </c>
@@ -51359,7 +53496,7 @@
       <c r="K4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="21" t="s">
         <v>85</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -51397,10 +53534,10 @@
       </c>
       <c r="AM4" s="17"/>
       <c r="AN4" s="16"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
       <c r="AU4" s="3" t="s">
         <v>86</v>
       </c>
@@ -51413,7 +53550,7 @@
       <c r="AX4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AY4" s="76" t="s">
+      <c r="AY4" s="21" t="s">
         <v>85</v>
       </c>
       <c r="AZ4" s="3" t="s">
@@ -51471,7 +53608,7 @@
         <v>0.63239999999999996</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" ref="I5:I18" si="2">H5*SQRT(2)</f>
+        <f t="shared" ref="I5:I17" si="2">H5*SQRT(2)</f>
         <v>0.89434865684474529</v>
       </c>
       <c r="J5" s="10">
@@ -52779,10 +54916,10 @@
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="1">
         <f>ω!C2</f>
         <v>1E-3</v>
@@ -52793,10 +54930,10 @@
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="1">
         <f>ω!F2</f>
         <v>0</v>
@@ -52807,10 +54944,10 @@
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="1">
         <f>ω!C3</f>
         <v>6.2831853071795862</v>
@@ -52821,10 +54958,10 @@
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="1">
         <f>ω!I2</f>
         <v>1</v>
@@ -52835,10 +54972,10 @@
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1">
         <f>ω!M2</f>
         <v>1E-4</v>
@@ -52849,10 +54986,10 @@
     </row>
     <row r="25" spans="1:74" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="1">
         <f>ω!Q2</f>
         <v>1.4142135623730951E-4</v>
@@ -52863,10 +55000,10 @@
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="1">
         <f>ω!Q3</f>
         <v>1E-4</v>
@@ -52877,10 +55014,10 @@
     </row>
     <row r="27" spans="1:74" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="29">
         <f>ω!Q4</f>
         <v>1.4142135623730951E-4</v>
@@ -52891,10 +55028,10 @@
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="39"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="1">
         <f>ω!T2</f>
         <v>1E-3</v>
@@ -52905,10 +55042,10 @@
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="1">
         <f>ω!T3</f>
         <v>1.4142135623730952E-3</v>
@@ -53177,111 +55314,111 @@
       <c r="BV58" s="17"/>
     </row>
     <row r="59" spans="1:74" ht="18" x14ac:dyDescent="0.25">
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
       <c r="AN59" s="16"/>
-      <c r="AQ59" s="48" t="s">
+      <c r="AQ59" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AR59" s="48"/>
-      <c r="AS59" s="48"/>
-      <c r="AT59" s="48"/>
-      <c r="AU59" s="48"/>
-      <c r="AV59" s="48"/>
-      <c r="AW59" s="48"/>
-      <c r="AX59" s="48"/>
-      <c r="AY59" s="48"/>
-      <c r="AZ59" s="48"/>
-      <c r="BA59" s="48"/>
-      <c r="BB59" s="48"/>
-      <c r="BF59" s="39" t="s">
+      <c r="AR59" s="60"/>
+      <c r="AS59" s="60"/>
+      <c r="AT59" s="60"/>
+      <c r="AU59" s="60"/>
+      <c r="AV59" s="60"/>
+      <c r="AW59" s="60"/>
+      <c r="AX59" s="60"/>
+      <c r="AY59" s="60"/>
+      <c r="AZ59" s="60"/>
+      <c r="BA59" s="60"/>
+      <c r="BB59" s="60"/>
+      <c r="BF59" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BG59" s="39"/>
-      <c r="BH59" s="39"/>
-      <c r="BI59" s="39"/>
-      <c r="BO59" s="39" t="s">
+      <c r="BG59" s="48"/>
+      <c r="BH59" s="48"/>
+      <c r="BI59" s="48"/>
+      <c r="BO59" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="BP59" s="39"/>
-      <c r="BQ59" s="39"/>
-      <c r="BR59" s="39"/>
+      <c r="BP59" s="48"/>
+      <c r="BQ59" s="48"/>
+      <c r="BR59" s="48"/>
       <c r="BV59" s="17"/>
     </row>
     <row r="60" spans="1:74" ht="18" x14ac:dyDescent="0.25">
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G60" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H60" s="49" t="s">
+      <c r="H60" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="47" t="s">
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="R60" s="39" t="s">
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="R60" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="X60" s="39" t="s">
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
+      <c r="U60" s="48"/>
+      <c r="X60" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="48"/>
+      <c r="AA60" s="48"/>
       <c r="AN60" s="16"/>
-      <c r="AQ60" s="39" t="s">
+      <c r="AQ60" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="AR60" s="39" t="s">
+      <c r="AR60" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="AS60" s="39" t="s">
+      <c r="AS60" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AT60" s="39" t="s">
+      <c r="AT60" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="AU60" s="49" t="s">
+      <c r="AU60" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AV60" s="50"/>
-      <c r="AW60" s="50"/>
-      <c r="AX60" s="51"/>
-      <c r="AY60" s="47" t="s">
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="58"/>
+      <c r="AY60" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AZ60" s="47"/>
-      <c r="BA60" s="47"/>
-      <c r="BB60" s="47"/>
+      <c r="AZ60" s="59"/>
+      <c r="BA60" s="59"/>
+      <c r="BB60" s="59"/>
       <c r="BF60" s="4" t="s">
         <v>3</v>
       </c>
@@ -53311,10 +55448,10 @@
       <c r="BV60" s="17"/>
     </row>
     <row r="61" spans="1:74" ht="18" x14ac:dyDescent="0.25">
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="3" t="s">
         <v>86</v>
       </c>
@@ -53327,7 +55464,7 @@
       <c r="K61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L61" s="76" t="s">
+      <c r="L61" s="21" t="s">
         <v>85</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -53366,10 +55503,10 @@
         <v>5</v>
       </c>
       <c r="AN61" s="16"/>
-      <c r="AQ61" s="39"/>
-      <c r="AR61" s="39"/>
-      <c r="AS61" s="39"/>
-      <c r="AT61" s="39"/>
+      <c r="AQ61" s="48"/>
+      <c r="AR61" s="48"/>
+      <c r="AS61" s="48"/>
+      <c r="AT61" s="48"/>
       <c r="AU61" s="3" t="s">
         <v>86</v>
       </c>
@@ -53382,7 +55519,7 @@
       <c r="AX61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AY61" s="76" t="s">
+      <c r="AY61" s="21" t="s">
         <v>85</v>
       </c>
       <c r="AZ61" s="3" t="s">
@@ -54665,60 +56802,60 @@
       <c r="BV90" s="17"/>
     </row>
     <row r="91" spans="3:74" ht="18" x14ac:dyDescent="0.25">
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
-      <c r="O91" s="48"/>
-      <c r="T91" s="39" t="s">
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="T91" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="AD91" s="39" t="s">
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="AD91" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
+      <c r="AE91" s="48"/>
+      <c r="AF91" s="48"/>
+      <c r="AG91" s="48"/>
       <c r="AN91" s="16"/>
       <c r="BV91" s="17"/>
     </row>
     <row r="92" spans="3:74" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="39" t="s">
+      <c r="D92" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E92" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G92" s="39" t="s">
+      <c r="G92" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H92" s="55" t="s">
+      <c r="H92" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="46" t="s">
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55"/>
       <c r="T92" s="4" t="s">
         <v>3</v>
       </c>
@@ -54749,11 +56886,11 @@
       <c r="BV92" s="17"/>
     </row>
     <row r="93" spans="3:74" ht="18" x14ac:dyDescent="0.25">
-      <c r="C93" s="69"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
       <c r="H93" s="3" t="s">
         <v>86</v>
       </c>
@@ -54766,7 +56903,7 @@
       <c r="K93" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L93" s="76" t="s">
+      <c r="L93" s="21" t="s">
         <v>85</v>
       </c>
       <c r="M93" s="3" t="s">
@@ -54806,20 +56943,20 @@
       <c r="BV93" s="17"/>
     </row>
     <row r="94" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C94" s="70" t="s">
+      <c r="C94" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="67">
+      <c r="D94" s="42">
         <v>1501</v>
       </c>
-      <c r="E94" s="73">
+      <c r="E94" s="45">
         <f t="shared" ref="E94:E113" si="25">2*PI()*D94</f>
         <v>9431.0611460765595</v>
       </c>
-      <c r="F94" s="72">
+      <c r="F94" s="44">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G94" s="75">
+      <c r="G94" s="47">
         <f t="shared" ref="G94:G113" si="26">F94*SQRT(2)</f>
         <v>0.55578593001262644</v>
       </c>
@@ -54881,7 +57018,7 @@
       <c r="BV94" s="17"/>
     </row>
     <row r="95" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C95" s="70"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="1">
         <v>1501</v>
       </c>
@@ -54930,7 +57067,7 @@
       <c r="BV95" s="17"/>
     </row>
     <row r="96" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C96" s="70"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="1">
         <v>1501</v>
       </c>
@@ -54979,7 +57116,7 @@
       <c r="BV96" s="17"/>
     </row>
     <row r="97" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C97" s="70"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="1">
         <v>1501</v>
       </c>
@@ -55028,7 +57165,7 @@
       <c r="BV97" s="17"/>
     </row>
     <row r="98" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C98" s="70"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="1">
         <v>1501</v>
       </c>
@@ -55077,7 +57214,7 @@
       <c r="BV98" s="17"/>
     </row>
     <row r="99" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C99" s="70"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="1">
         <v>1501</v>
       </c>
@@ -55126,7 +57263,7 @@
       <c r="BV99" s="17"/>
     </row>
     <row r="100" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C100" s="70"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="1">
         <v>1501</v>
       </c>
@@ -55175,7 +57312,7 @@
       <c r="BV100" s="17"/>
     </row>
     <row r="101" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C101" s="70"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="1">
         <v>1501</v>
       </c>
@@ -55224,7 +57361,7 @@
       <c r="BV101" s="17"/>
     </row>
     <row r="102" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C102" s="70"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="1">
         <v>1501</v>
       </c>
@@ -55273,7 +57410,7 @@
       <c r="BV102" s="17"/>
     </row>
     <row r="103" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C103" s="68" t="s">
+      <c r="C103" s="63" t="s">
         <v>74</v>
       </c>
       <c r="D103" s="1">
@@ -55324,7 +57461,7 @@
       <c r="BV103" s="17"/>
     </row>
     <row r="104" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C104" s="68"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="1">
         <v>1501</v>
       </c>
@@ -55373,7 +57510,7 @@
       <c r="BV104" s="17"/>
     </row>
     <row r="105" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C105" s="68"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="1">
         <v>1501</v>
       </c>
@@ -55422,7 +57559,7 @@
       <c r="BV105" s="17"/>
     </row>
     <row r="106" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C106" s="68"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="1">
         <v>1501</v>
       </c>
@@ -55471,7 +57608,7 @@
       <c r="BV106" s="17"/>
     </row>
     <row r="107" spans="3:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="68"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="1">
         <v>1501</v>
       </c>
@@ -55553,7 +57690,7 @@
       <c r="BV107" s="20"/>
     </row>
     <row r="108" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C108" s="68"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="1">
         <v>1501</v>
       </c>
@@ -55600,7 +57737,7 @@
       </c>
     </row>
     <row r="109" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C109" s="68"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="1">
         <v>1501</v>
       </c>
@@ -55647,7 +57784,7 @@
       </c>
     </row>
     <row r="110" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C110" s="68"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="1">
         <v>1501</v>
       </c>
@@ -55694,7 +57831,7 @@
       </c>
     </row>
     <row r="111" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C111" s="68"/>
+      <c r="C111" s="63"/>
       <c r="D111" s="1">
         <v>1501</v>
       </c>
@@ -55741,7 +57878,7 @@
       </c>
     </row>
     <row r="112" spans="3:74" x14ac:dyDescent="0.25">
-      <c r="C112" s="68"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="1">
         <v>1501</v>
       </c>
@@ -55788,7 +57925,7 @@
       </c>
     </row>
     <row r="113" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C113" s="68"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="1">
         <v>1501</v>
       </c>
@@ -55852,23 +57989,23 @@
       </c>
     </row>
     <row r="138" spans="9:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="I138" s="45" t="s">
+      <c r="I138" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J138" s="45"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="45"/>
-      <c r="M138" s="45"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="54"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="54"/>
     </row>
     <row r="139" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I139" s="40" t="s">
+      <c r="I139" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J139" s="40"/>
-      <c r="L139" s="46" t="s">
+      <c r="J139" s="49"/>
+      <c r="L139" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M139" s="46"/>
+      <c r="M139" s="55"/>
     </row>
     <row r="140" spans="9:13" ht="18" x14ac:dyDescent="0.25">
       <c r="I140" s="27" t="s">
@@ -55941,10 +58078,10 @@
       <c r="J145" s="1">
         <v>0.75</v>
       </c>
-      <c r="K145" s="44" t="s">
+      <c r="K145" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L145" s="44"/>
+      <c r="L145" s="53"/>
       <c r="M145" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -55956,48 +58093,51 @@
       <c r="J146" s="1">
         <v>364</v>
       </c>
-      <c r="K146" s="44" t="s">
+      <c r="K146" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="44"/>
+      <c r="L146" s="53"/>
       <c r="M146" s="22">
         <f>M145^2*PI()/4</f>
         <v>1.3202543126711107E-3</v>
       </c>
     </row>
     <row r="147" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K147" s="44" t="s">
+      <c r="K147" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L147" s="44"/>
+      <c r="L147" s="53"/>
       <c r="M147" s="1">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AQ60:AQ61"/>
-    <mergeCell ref="AR60:AR61"/>
-    <mergeCell ref="AS60:AS61"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BO59:BR59"/>
-    <mergeCell ref="AU60:AX60"/>
-    <mergeCell ref="AY3:BB3"/>
-    <mergeCell ref="BF2:BI2"/>
-    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C103:C113"/>
+    <mergeCell ref="C94:C102"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="T91:W91"/>
+    <mergeCell ref="AD91:AG91"/>
+    <mergeCell ref="I138:M138"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="L139:M139"/>
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="D59:O59"/>
     <mergeCell ref="AQ2:BB2"/>
@@ -56014,31 +58154,28 @@
     <mergeCell ref="R60:U60"/>
     <mergeCell ref="X60:AA60"/>
     <mergeCell ref="L92:O92"/>
-    <mergeCell ref="T91:W91"/>
-    <mergeCell ref="AD91:AG91"/>
-    <mergeCell ref="I138:M138"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="L139:M139"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C103:C113"/>
-    <mergeCell ref="C94:C102"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BO59:BR59"/>
+    <mergeCell ref="AU60:AX60"/>
+    <mergeCell ref="AY3:BB3"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AQ60:AQ61"/>
+    <mergeCell ref="AR60:AR61"/>
+    <mergeCell ref="AS60:AS61"/>
+    <mergeCell ref="AT60:AT61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56053,8 +58190,8 @@
   </sheetPr>
   <dimension ref="C2:AF38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56079,36 +58216,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="46" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -56118,12 +58255,12 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="3:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="3" t="s">
         <v>86</v>
       </c>
@@ -56136,7 +58273,7 @@
       <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="21" t="s">
         <v>85</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -56148,18 +58285,18 @@
       <c r="P3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="Z3" s="39" t="s">
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="Z3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -56174,7 +58311,7 @@
       <c r="E4" s="7">
         <v>1501</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="41">
         <f>E4*2*PI()</f>
         <v>9431.0611460765595</v>
       </c>
@@ -56200,10 +58337,10 @@
         <f>K4-J4</f>
         <v>-1.1709688296449583E-2</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="40">
         <v>2.94</v>
       </c>
-      <c r="N4" s="65">
+      <c r="N4" s="40">
         <f>M4/2</f>
         <v>1.47</v>
       </c>
@@ -56218,11 +58355,11 @@
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="39">
         <f t="array" ref="S4:T6">LINEST(J4:J8,D4:D8,1,1)</f>
         <v>4.6889664874042326E-3</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="39">
         <v>2.0138401128193095E-2</v>
       </c>
       <c r="U4" s="4" t="s">
@@ -56231,11 +58368,11 @@
       <c r="Z4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="74">
+      <c r="AA4" s="46">
         <f t="array" ref="AA4:AB6">LINEST(N4:N8,D4:D8,1,1)</f>
         <v>4.6049999999999989E-3</v>
       </c>
-      <c r="AB4" s="74">
+      <c r="AB4" s="46">
         <v>8.7500000000000133E-2</v>
       </c>
       <c r="AC4" s="4" t="s">
@@ -56255,7 +58392,7 @@
       <c r="E5" s="7">
         <v>1501</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="41">
         <f t="shared" ref="F5:F8" si="0">E5*2*PI()</f>
         <v>9431.0611460765595</v>
       </c>
@@ -56281,10 +58418,10 @@
         <f>J5-K5</f>
         <v>8.2590072042590945E-3</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="40">
         <v>2.0099999999999998</v>
       </c>
-      <c r="N5" s="65">
+      <c r="N5" s="40">
         <f t="shared" ref="N5:N8" si="1">M5/2</f>
         <v>1.0049999999999999</v>
       </c>
@@ -56299,10 +58436,10 @@
       <c r="R5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="39">
         <v>3.4887629135077449E-5</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="39">
         <v>1.157091756661232E-2</v>
       </c>
       <c r="U5" s="4" t="s">
@@ -56311,10 +58448,10 @@
       <c r="Z5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="74">
+      <c r="AA5" s="46">
         <v>7.637626158259235E-6</v>
       </c>
-      <c r="AB5" s="74">
+      <c r="AB5" s="46">
         <v>2.5331140255949454E-3</v>
       </c>
       <c r="AC5" s="4" t="s">
@@ -56334,7 +58471,7 @@
       <c r="E6" s="7">
         <v>1501</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="41">
         <f t="shared" si="0"/>
         <v>9431.0611460765595</v>
       </c>
@@ -56360,10 +58497,10 @@
         <f>J6-K6</f>
         <v>-1.0889444430272843E-2</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N6" s="65">
+      <c r="N6" s="40">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
@@ -56378,10 +58515,10 @@
       <c r="R6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="64">
+      <c r="S6" s="39">
         <v>0.99983395041643675</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="39">
         <v>1.1032437023009491E-2</v>
       </c>
       <c r="U6" s="4" t="s">
@@ -56390,10 +58527,10 @@
       <c r="Z6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="74">
+      <c r="AA6" s="46">
         <v>0.99999174769642851</v>
       </c>
-      <c r="AB6" s="74">
+      <c r="AB6" s="46">
         <v>2.4152294576980822E-3</v>
       </c>
       <c r="AC6" s="4" t="s">
@@ -56413,7 +58550,7 @@
       <c r="E7" s="7">
         <v>1501</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="41">
         <f t="shared" si="0"/>
         <v>9431.0611460765595</v>
       </c>
@@ -56439,10 +58576,10 @@
         <f>J7-K7</f>
         <v>-4.6386204845834111E-3</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="40">
         <v>3.86</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="40">
         <f t="shared" si="1"/>
         <v>1.93</v>
       </c>
@@ -56472,7 +58609,7 @@
       <c r="E8" s="7">
         <v>1501</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
         <v>9431.0611460765595</v>
       </c>
@@ -56498,10 +58635,10 @@
         <f>J8-K8</f>
         <v>-4.4406305858508688E-3</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="40">
         <v>4.78</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="40">
         <f t="shared" si="1"/>
         <v>2.39</v>
       </c>
@@ -56540,13 +58677,13 @@
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="3:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
       <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
@@ -56563,15 +58700,15 @@
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="3:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="55"/>
       <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
@@ -56720,17 +58857,17 @@
       <c r="D18" s="1">
         <v>0.75</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="1">
         <f>i0!D20</f>
         <v>1E-3</v>
@@ -56750,18 +58887,18 @@
       <c r="D19" s="1">
         <v>364</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="37">
         <f>G18^2*PI()/4</f>
         <v>1.3202543126711107E-3</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="1">
         <f>i0!D21</f>
         <v>0</v>
@@ -56777,10 +58914,10 @@
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="39"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="1">
         <f>i0!D22</f>
         <v>6.2831853071795862</v>
@@ -56794,10 +58931,10 @@
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="39"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="1">
         <f>i0!D23</f>
         <v>1</v>
@@ -56811,10 +58948,10 @@
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="39"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="1">
         <f>i0!D24</f>
         <v>1E-4</v>
@@ -56828,10 +58965,10 @@
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="3:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="39"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="1">
         <f>i0!D25</f>
         <v>1.4142135623730951E-4</v>
@@ -56845,10 +58982,10 @@
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="39"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="1">
         <f>i0!D26</f>
         <v>1E-4</v>
@@ -56862,10 +58999,10 @@
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="3:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="39"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="1">
         <f>i0!D27</f>
         <v>1.4142135623730951E-4</v>
@@ -56879,10 +59016,10 @@
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="1">
         <f>i0!D28</f>
         <v>1E-3</v>
@@ -56896,10 +59033,10 @@
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="1">
         <f>i0!D29</f>
         <v>1.4142135623730952E-3</v>
@@ -57015,6 +59152,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="Z3:AC3"/>
@@ -57031,15 +59177,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57054,8 +59191,8 @@
   </sheetPr>
   <dimension ref="B2:AF38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57085,42 +59222,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -57130,14 +59267,14 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="3" t="s">
         <v>86</v>
       </c>
@@ -57150,7 +59287,7 @@
       <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="76" t="s">
+      <c r="O3" s="21" t="s">
         <v>85</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -57179,18 +59316,18 @@
       <c r="D4" s="7">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="39">
         <f>PI()*D4^2/4</f>
         <v>1.3202543126711107E-3</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="39">
         <f>M8</f>
         <v>6.4402649398590767E-5</v>
       </c>
       <c r="G4" s="7">
         <v>1501</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="41">
         <f>G4*2*PI()</f>
         <v>9431.0611460765595</v>
       </c>
@@ -57237,13 +59374,13 @@
       <c r="U4" s="1">
         <v>1</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AB4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
     </row>
     <row r="5" spans="2:32" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C5" s="7">
@@ -57252,18 +59389,18 @@
       <c r="D5" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="39">
         <f>PI()*D5^2/4</f>
         <v>8.5529859993982123E-4</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="39">
         <f t="shared" ref="F5:F6" si="0">M9</f>
         <v>5.183627878423159E-5</v>
       </c>
       <c r="G5" s="7">
         <v>1501</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="41">
         <f>G5*2*PI()</f>
         <v>9431.0611460765595</v>
       </c>
@@ -57311,15 +59448,15 @@
         <f>ABS(2*PI()*U4)</f>
         <v>6.2831853071795862</v>
       </c>
-      <c r="AB5" s="40" t="s">
+      <c r="AB5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="40"/>
+      <c r="AC5" s="49"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="46" t="s">
+      <c r="AE5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="46"/>
+      <c r="AF5" s="55"/>
     </row>
     <row r="6" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
@@ -57328,18 +59465,18 @@
       <c r="D6" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="39">
         <f>PI()*D6^2/4</f>
         <v>5.3092915845667494E-4</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="39">
         <f t="shared" si="0"/>
         <v>4.0840704496667311E-5</v>
       </c>
       <c r="G6" s="7">
         <v>1501</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="41">
         <f>G6*2*PI()</f>
         <v>9431.0611460765595</v>
       </c>
@@ -57416,28 +59553,28 @@
       </c>
     </row>
     <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="52"/>
+      <c r="L8" s="65"/>
       <c r="M8" s="7">
         <f>PI()/2*D4*$M$14</f>
         <v>6.4402649398590767E-5</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="27" t="s">
@@ -57470,10 +59607,10 @@
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="52"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="7">
         <f>PI()/2*D5*$M$14</f>
         <v>5.183627878423159E-5</v>
@@ -57524,10 +59661,10 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="7">
         <f t="shared" ref="M10" si="2">PI()/2*D6*$M$14</f>
         <v>4.0840704496667311E-5</v>
@@ -57586,10 +59723,10 @@
       <c r="AC11" s="1">
         <v>0.75</v>
       </c>
-      <c r="AD11" s="44" t="s">
+      <c r="AD11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AE11" s="44"/>
+      <c r="AE11" s="53"/>
       <c r="AF11" s="1">
         <v>300</v>
       </c>
@@ -57614,10 +59751,10 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="1">
         <f>i0!D20</f>
         <v>1E-3</v>
@@ -57628,10 +59765,10 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="1">
         <f>i0!D21</f>
         <v>0</v>
@@ -57645,10 +59782,10 @@
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="1">
         <f>i0!D22</f>
         <v>6.2831853071795862</v>
@@ -57662,10 +59799,10 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="1">
         <f>i0!D23</f>
         <v>1</v>
@@ -57679,10 +59816,10 @@
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="1">
         <f>i0!D24</f>
         <v>1E-4</v>
@@ -57696,10 +59833,10 @@
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="11:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="1">
         <f>i0!D25</f>
         <v>1.4142135623730951E-4</v>
@@ -57713,10 +59850,10 @@
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="1">
         <f>i0!D26</f>
         <v>1E-4</v>
@@ -57730,10 +59867,10 @@
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="11:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="1">
         <f>i0!D27</f>
         <v>1.4142135623730951E-4</v>
@@ -57747,10 +59884,10 @@
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="1">
         <f>i0!D28</f>
         <v>1E-3</v>
@@ -57764,10 +59901,10 @@
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="39"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="1">
         <f>i0!D29</f>
         <v>1.4142135623730952E-3</v>
@@ -57917,6 +60054,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
@@ -57933,19 +60083,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57960,8 +60097,8 @@
   </sheetPr>
   <dimension ref="B2:BB43"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL42" sqref="AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57987,53 +60124,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="3:34" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="3" t="s">
         <v>86</v>
       </c>
@@ -58046,7 +60183,7 @@
       <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="76" t="s">
+      <c r="O3" s="21" t="s">
         <v>85</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -58058,18 +60195,18 @@
       <c r="R3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="AE3" s="39" t="s">
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="AE3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
     </row>
     <row r="4" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
@@ -58090,7 +60227,7 @@
       <c r="G4" s="7">
         <v>1496</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="41">
         <f t="shared" ref="H4:H10" si="2">G4*2*PI()</f>
         <v>9399.6452195406619</v>
       </c>
@@ -58177,7 +60314,7 @@
       <c r="G5" s="7">
         <v>1496</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="41">
         <f t="shared" si="2"/>
         <v>9399.6452195406619</v>
       </c>
@@ -58262,7 +60399,7 @@
       <c r="G6" s="7">
         <v>1496</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="41">
         <f t="shared" si="2"/>
         <v>9399.6452195406619</v>
       </c>
@@ -58347,7 +60484,7 @@
       <c r="G7" s="7">
         <v>1496</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="41">
         <f t="shared" si="2"/>
         <v>9399.6452195406619</v>
       </c>
@@ -58410,7 +60547,7 @@
       <c r="G8" s="7">
         <v>1496</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="41">
         <f t="shared" si="2"/>
         <v>9399.6452195406619</v>
       </c>
@@ -58473,7 +60610,7 @@
       <c r="G9" s="7">
         <v>1496</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="41">
         <f t="shared" si="2"/>
         <v>9399.6452195406619</v>
       </c>
@@ -58540,7 +60677,7 @@
       <c r="G10" s="7">
         <v>1496</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="41">
         <f t="shared" si="2"/>
         <v>9399.6452195406619</v>
       </c>
@@ -58599,14 +60736,14 @@
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="3:34" ht="18" x14ac:dyDescent="0.25">
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="K12" s="4" t="s">
         <v>40</v>
       </c>
@@ -58614,10 +60751,10 @@
         <f>AVERAGE(J4:J10)</f>
         <v>0.69862149981230903</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="1">
         <f>i0!D20</f>
         <v>1E-3</v>
@@ -58631,16 +60768,16 @@
       <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="3:34" ht="18" x14ac:dyDescent="0.25">
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="55"/>
       <c r="K13" s="4" t="s">
         <v>41</v>
       </c>
@@ -58648,10 +60785,10 @@
         <f>_xlfn.STDEV.P(J4:J10)/SQRT(7)</f>
         <v>5.7142857142856377E-4</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="48"/>
       <c r="P13" s="1">
         <f>i0!D21</f>
         <v>0</v>
@@ -58683,10 +60820,10 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="48"/>
       <c r="P14" s="1">
         <f>i0!D22</f>
         <v>6.2831853071795862</v>
@@ -58722,10 +60859,10 @@
       <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="48"/>
       <c r="P15" s="1">
         <f>i0!D23</f>
         <v>1</v>
@@ -58763,10 +60900,10 @@
         <f>ABS(2*PI()*L15)</f>
         <v>6.2831853071795862</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="1">
         <f>i0!D24</f>
         <v>1E-4</v>
@@ -58796,10 +60933,10 @@
         <f>ABS(I14-I15)/I14</f>
         <v>0.27895562336937491</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="39"/>
+      <c r="O17" s="48"/>
       <c r="P17" s="1">
         <f>i0!D25</f>
         <v>1.4142135623730951E-4</v>
@@ -58819,10 +60956,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="39"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="1">
         <f>i0!D26</f>
         <v>1E-4</v>
@@ -58844,17 +60981,17 @@
         <v>0.75</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="1">
         <f>i0!D27</f>
         <v>1.4142135623730951E-4</v>
@@ -58875,18 +61012,18 @@
         <v>364</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="29">
         <f>PI()*I19^2/4</f>
         <v>5.3092915845667494E-4</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="39"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="1">
         <f>i0!D28</f>
         <v>1E-3</v>
@@ -58903,17 +61040,17 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="1">
         <v>100</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="39"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="1">
         <f>i0!D29</f>
         <v>1.4142135623730952E-3</v>
@@ -58940,10 +61077,10 @@
       <c r="BB22" s="2"/>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N23" s="52" t="s">
+      <c r="N23" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="O23" s="52"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="7">
         <v>7.5</v>
       </c>
@@ -58961,10 +61098,10 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="N24" s="52" t="s">
+      <c r="N24" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="52"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="7">
         <f>P23*PI()/180</f>
         <v>0.1308996938995747</v>
@@ -58978,12 +61115,12 @@
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="O25" s="61"/>
+      <c r="O25" s="71"/>
       <c r="P25" s="7">
-        <f>-SIN(C4)*$P$24</f>
+        <f t="shared" ref="P25:P31" si="11">-SIN(C4)*$P$24</f>
         <v>0</v>
       </c>
       <c r="AB25" s="2"/>
@@ -58995,10 +61132,10 @@
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="73"/>
       <c r="P26" s="7">
-        <f>-SIN(C5)*$P$24</f>
+        <f t="shared" si="11"/>
         <v>-8.5122479223182154E-2</v>
       </c>
       <c r="AB26" s="2"/>
@@ -59010,10 +61147,10 @@
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="73"/>
       <c r="P27" s="7">
-        <f>-SIN(C6)*$P$24</f>
+        <f t="shared" si="11"/>
         <v>0.12933303715685526</v>
       </c>
       <c r="AB27" s="2"/>
@@ -59025,10 +61162,10 @@
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="73"/>
       <c r="P28" s="7">
-        <f>-SIN(C7)*$P$24</f>
+        <f t="shared" si="11"/>
         <v>-0.11138301089958536</v>
       </c>
       <c r="AB28" s="2"/>
@@ -59040,10 +61177,10 @@
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N29" s="62"/>
-      <c r="O29" s="63"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="73"/>
       <c r="P29" s="7">
-        <f>-SIN(C8)*$P$24</f>
+        <f t="shared" si="11"/>
         <v>3.9899616999619407E-2</v>
       </c>
       <c r="AB29" s="2"/>
@@ -59055,10 +61192,10 @@
       <c r="AH29" s="2"/>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="73"/>
       <c r="P30" s="7">
-        <f>-SIN(C9)*$P$24</f>
+        <f t="shared" si="11"/>
         <v>5.0760497374970924E-2</v>
       </c>
       <c r="AB30" s="2"/>
@@ -59070,10 +61207,10 @@
       <c r="AH30" s="2"/>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="N31" s="62"/>
-      <c r="O31" s="63"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="73"/>
       <c r="P31" s="7">
-        <f>-SIN(C10)*$P$24</f>
+        <f t="shared" si="11"/>
         <v>-0.11702388961255408</v>
       </c>
       <c r="AB31" s="2"/>
@@ -59192,11 +61329,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O31"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J2:J3"/>
@@ -59205,24 +61352,14 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="D12:I12"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -59237,7 +61374,7 @@
   </sheetPr>
   <dimension ref="C2:M8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -59254,43 +61391,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="58">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="74">
         <f>4*PI()*10^-7</f>
         <v>1.2566370614359173E-6</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="3:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="59"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" s="35" t="s">

--- a/016/T3B/T3B.xlsx
+++ b/016/T3B/T3B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\016\T3B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA31B55-3AF3-42FC-8D67-E910AF1ED0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A166EA92-BDD0-44AA-A961-745319CE26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{BDFC7A73-9C8C-480E-ABE4-F0A2AC96A04A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{BDFC7A73-9C8C-480E-ABE4-F0A2AC96A04A}"/>
   </bookViews>
   <sheets>
     <sheet name="ω" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="93">
   <si>
     <t>Ajuste</t>
   </si>
@@ -1188,6 +1188,12 @@
   <si>
     <t>u(cos(θ))</t>
   </si>
+  <si>
+    <t>a6-</t>
+  </si>
+  <si>
+    <t>OS VALORES DE VPICO NÃO PERCEBO UM CARALHO. ELAS REGISTARAM RMS ? O QUE SER RMS ? PICO A PICO ?</t>
+  </si>
 </sst>
 </file>
 
@@ -1585,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1809,6 +1815,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16432,6 +16444,869 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Ajuste VE0 ao variar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1500" baseline="0"/>
+              <a:t>i0 - Ensaio 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t> - Voltimetro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13861837786184156"/>
+          <c:y val="0.1380597279859789"/>
+          <c:w val="0.82172450701363975"/>
+          <c:h val="0.71764765234223926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>VEO(i0)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730952E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>i0!$D$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>i0!$AR$112:$AR$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.4293168773525342E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6233373880641382E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3441620408057051E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1570328163657913E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10947427186330129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12411138223386284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14053040169301448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15214109504009757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17834647235087103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19900813249714197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22338917431245414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2458186014116914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26311443327951439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28002842748549656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29527364968787856</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31423825355930174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33137852193526368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31923042743447877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6927944540686257E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>i0!$AT$112:$AT$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.4342186745909162E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11978388873300115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13514224802037297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19444022269067684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23242599897601818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26365183443321616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29856876728820786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32327507822286583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37900923471598952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42284985514955542</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47473735075302431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5223680635337502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55926489537606416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59514349345346962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62758555257430848</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6678764969663179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70427835406180139</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67957204312714337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8601989796696622E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D9B-44D0-B811-06CE02410209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Aj Lin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>i0!$AR$112:$AR$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.4293168773525342E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6233373880641382E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3441620408057051E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1570328163657913E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10947427186330129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12411138223386284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14053040169301448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15214109504009757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17834647235087103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19900813249714197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22338917431245414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2458186014116914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26311443327951439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28002842748549656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29527364968787856</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31423825355930174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33137852193526368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31923042743447877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6927944540686257E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>i0!$AU$112:$AU$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.4133535736873428E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11951578472080178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13483893088580035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19463437471978534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23269421981471997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26380949601792486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29871271888934597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32339449837034223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37910136484815732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42302350835818853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47485223896140127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52253226607085335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5592993992075872</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59525482948684605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62766281764825183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66797739290283886</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70441383228282373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67858965618760347</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8476689508246281E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D9B-44D0-B811-06CE02410209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2044694000"/>
+        <c:axId val="2044696496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2044694000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2044696496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2044696496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                  <a:t>E0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2044694000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74394568250276349"/>
+          <c:y val="0.6788037189980628"/>
+          <c:w val="0.19186840191167343"/>
+          <c:h val="0.14933169624561582"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -17088,7 +17963,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -17700,7 +18575,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -18389,7 +19264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -18917,698 +19792,6 @@
           <c:y val="0.74653666731688462"/>
           <c:w val="0.14440737606613865"/>
           <c:h val="8.0088491441405257E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Ajuste V</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="-25000"/>
-              <a:t>E0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t> ao variar</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1600" baseline="0"/>
-              <a:t>S</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t> - Voltimetro</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14577928692411854"/>
-          <c:y val="0.1380597279859789"/>
-          <c:w val="0.79213968084011466"/>
-          <c:h val="0.70340979796073566"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>V(S) - Voltimetro</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>S!$M$8:$M$10</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>6.4402649398590767E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.183627878423159E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.0840704496667311E-5</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>S!$M$8:$M$10</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>6.4402649398590767E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5.183627878423159E-5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.0840704496667311E-5</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>S!$M$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1.4142135623730951E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>S!$M$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1.4142135623730951E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>S!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.3202543126711107E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5529859993982123E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3092915845667494E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>S!$L$4:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4289213834217753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93847211999078595</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33629998513232207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B69-40D2-8A30-C557FE3615A6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Aj Lin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>S!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.3202543126711107E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5529859993982123E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3092915845667494E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>S!$M$4:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4704438063934679</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.837430872807852</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39581880934356239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B69-40D2-8A30-C557FE3615A6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2044694000"/>
-        <c:axId val="2044696496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2044694000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1400"/>
-                  <a:t>S (m</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1400" baseline="30000"/>
-                  <a:t>2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2044696496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2044696496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>V</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
-                  <a:t>E0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (V)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2044694000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.65990263917545067"/>
-          <c:y val="0.64861209812618204"/>
-          <c:w val="0.27264419242734239"/>
-          <c:h val="0.16017698288281051"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -20416,6 +20599,698 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Ajuste V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="-25000"/>
+              <a:t>E0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t> ao variar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" baseline="0"/>
+              <a:t>S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t> - Voltimetro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14577928692411854"/>
+          <c:y val="0.1380597279859789"/>
+          <c:w val="0.79213968084011466"/>
+          <c:h val="0.70340979796073566"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V(S) - Voltimetro</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>S!$M$8:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4402649398590767E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.183627878423159E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0840704496667311E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>S!$M$8:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4402649398590767E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.183627878423159E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0840704496667311E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>S!$M$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>S!$M$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4142135623730951E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3202543126711107E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5529859993982123E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3092915845667494E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S!$L$4:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4289213834217753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93847211999078595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33629998513232207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B69-40D2-8A30-C557FE3615A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Aj Lin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3202543126711107E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5529859993982123E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3092915845667494E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S!$M$4:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4704438063934679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.837430872807852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39581880934356239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B69-40D2-8A30-C557FE3615A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2044694000"/>
+        <c:axId val="2044696496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2044694000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>S (m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2044696496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2044696496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                  <a:t>E0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2044694000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65990263917545067"/>
+          <c:y val="0.64861209812618204"/>
+          <c:w val="0.27264419242734239"/>
+          <c:h val="0.16017698288281051"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="pt-PT" sz="1600"/>
               <a:t>Resíduos</a:t>
             </a:r>
@@ -21020,7 +21895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -21729,7 +22604,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -22356,7 +23231,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -23122,7 +23997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -23814,7 +24689,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -24603,7 +25478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -30925,6 +31800,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -46130,6 +47045,522 @@
 </file>
 
 <file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -50278,8 +51709,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>606012</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>1854</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>4483</xdr:rowOff>
     </xdr:from>
@@ -50649,6 +52080,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>303942</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>104143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4B453-688B-49A8-8311-6A484088A4D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -51430,7 +52899,7 @@
   </sheetPr>
   <dimension ref="B2:AB70"/>
   <sheetViews>
-    <sheetView topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB65" sqref="AB65"/>
     </sheetView>
   </sheetViews>
@@ -53179,10 +54648,10 @@
   <sheetPr>
     <tabColor rgb="FFFFCC66"/>
   </sheetPr>
-  <dimension ref="A1:BV147"/>
+  <dimension ref="A1:BV208"/>
   <sheetViews>
-    <sheetView topLeftCell="BB42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BJ44" sqref="BJ44"/>
+    <sheetView tabSelected="1" topLeftCell="AT109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ136" sqref="AZ136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55142,6 +56611,9 @@
       <c r="A44" s="16"/>
       <c r="AM44" s="17"/>
       <c r="AN44" s="16"/>
+      <c r="BJ44" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BV44" s="17"/>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
@@ -57653,7 +59125,7 @@
         <f t="shared" si="32"/>
         <v>2.2121906857313078E-3</v>
       </c>
-      <c r="AN107" s="18"/>
+      <c r="AN107" s="16"/>
       <c r="AO107" s="19"/>
       <c r="AP107" s="19"/>
       <c r="AQ107" s="19"/>
@@ -57735,6 +59207,7 @@
         <f t="shared" si="32"/>
         <v>-4.7909478126717531E-5</v>
       </c>
+      <c r="AN108" s="13"/>
     </row>
     <row r="109" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
@@ -57782,8 +59255,23 @@
         <f t="shared" si="32"/>
         <v>-9.9791652703664635E-3</v>
       </c>
+      <c r="AN109" s="16"/>
+      <c r="AO109" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP109" s="60"/>
+      <c r="AQ109" s="60"/>
+      <c r="AR109" s="60"/>
+      <c r="AS109" s="60"/>
+      <c r="AT109" s="60"/>
+      <c r="AU109" s="60"/>
+      <c r="AV109" s="60"/>
+      <c r="AW109" s="60"/>
+      <c r="AX109" s="60"/>
+      <c r="AY109" s="60"/>
+      <c r="AZ109" s="60"/>
     </row>
-    <row r="110" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:74" ht="18" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="1">
         <v>1501</v>
@@ -57829,8 +59317,45 @@
         <f t="shared" si="32"/>
         <v>3.9251567515843355E-3</v>
       </c>
+      <c r="AN110" s="16"/>
+      <c r="AO110" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP110" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ110" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR110" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS110" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT110" s="49"/>
+      <c r="AU110" s="49"/>
+      <c r="AV110" s="49"/>
+      <c r="AW110" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX110" s="55"/>
+      <c r="AY110" s="55"/>
+      <c r="AZ110" s="55"/>
+      <c r="BB110" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC110" s="48"/>
+      <c r="BD110" s="48"/>
+      <c r="BE110" s="48"/>
+      <c r="BH110" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI110" s="48"/>
+      <c r="BJ110" s="48"/>
+      <c r="BK110" s="48"/>
     </row>
-    <row r="111" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:74" ht="18" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="1">
         <v>1501</v>
@@ -57875,6 +59400,61 @@
       <c r="O111" s="10">
         <f t="shared" si="32"/>
         <v>-8.3349434122739208E-3</v>
+      </c>
+      <c r="AN111" s="16"/>
+      <c r="AO111" s="48"/>
+      <c r="AP111" s="48"/>
+      <c r="AQ111" s="48"/>
+      <c r="AR111" s="48"/>
+      <c r="AS111" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT111" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV111" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW111" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ111" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC111" s="10">
+        <f t="array" ref="BC111:BD113">LINEST(AT112:AT130,AR112:AR130,1,1)</f>
+        <v>2.1257799808481703</v>
+      </c>
+      <c r="BD111" s="10">
+        <v>-2.3995730216053168E-5</v>
+      </c>
+      <c r="BE111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI111" s="10" t="e">
+        <f t="array" ref="BI111:BJ113">LINEST(AX112:AX130,AR112:AR130,1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ111" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK111" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="3:74" x14ac:dyDescent="0.25">
@@ -57923,8 +59503,77 @@
         <f t="shared" si="32"/>
         <v>2.4871675167723595E-3</v>
       </c>
+      <c r="AN112" s="16"/>
+      <c r="AO112" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP112" s="12">
+        <f t="shared" ref="AP112:AP130" si="33">2*PI()*AO112</f>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ112" s="1">
+        <v>3.1320000000000001E-2</v>
+      </c>
+      <c r="AR112" s="10">
+        <f t="shared" ref="AR112:AR149" si="34">AQ112*SQRT(2)</f>
+        <v>4.4293168773525342E-2</v>
+      </c>
+      <c r="AS112" s="10">
+        <v>6.6709999999999992E-2</v>
+      </c>
+      <c r="AT112" s="10">
+        <f t="shared" ref="AT112:AT130" si="35">AS112*SQRT(2)</f>
+        <v>9.4342186745909162E-2</v>
+      </c>
+      <c r="AU112" s="10">
+        <f>AR112*$BC$111+$BD$111</f>
+        <v>9.4133535736873428E-2</v>
+      </c>
+      <c r="AV112" s="10">
+        <f>AT112-AU112</f>
+        <v>2.0865100903573464E-4</v>
+      </c>
+      <c r="AW112" s="11">
+        <v>1.84</v>
+      </c>
+      <c r="AX112" s="11">
+        <f>AW112/2</f>
+        <v>0.92</v>
+      </c>
+      <c r="AY112" s="10" t="e">
+        <f>AR112*$BI$111+$BJ$111</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ112" s="76" t="e">
+        <f>AX112-AY112</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC112" s="10">
+        <v>6.9076367050013138E-4</v>
+      </c>
+      <c r="BD112" s="10">
+        <v>1.4317141116593928E-4</v>
+      </c>
+      <c r="BE112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI112" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ112" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK112" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="1">
         <v>1501</v>
@@ -57970,16 +59619,177 @@
         <f t="shared" si="32"/>
         <v>9.8043407420012052E-4</v>
       </c>
+      <c r="AN113" s="16"/>
+      <c r="AO113" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP113" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ113" s="1">
+        <v>3.9763E-2</v>
+      </c>
+      <c r="AR113" s="10">
+        <f t="shared" si="34"/>
+        <v>5.6233373880641382E-2</v>
+      </c>
+      <c r="AS113" s="10">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="AT113" s="10">
+        <f t="shared" si="35"/>
+        <v>0.11978388873300115</v>
+      </c>
+      <c r="AU113" s="10">
+        <f t="shared" ref="AU113:AU130" si="36">AR113*$BC$111+$BD$111</f>
+        <v>0.11951578472080178</v>
+      </c>
+      <c r="AV113" s="10">
+        <f t="shared" ref="AV113:AV130" si="37">AT113-AU113</f>
+        <v>2.6810401219937163E-4</v>
+      </c>
+      <c r="AW113" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="AX113" s="11">
+        <f t="shared" ref="AX113:AX125" si="38">AW113/2</f>
+        <v>0.95</v>
+      </c>
+      <c r="AY113" s="10">
+        <f t="shared" ref="AY113:AY129" si="39">AR113*$BC$111+$BD$111</f>
+        <v>0.11951578472080178</v>
+      </c>
+      <c r="AZ113" s="10">
+        <f t="shared" ref="AZ112:AZ130" si="40">AX113-AY113</f>
+        <v>0.83048421527919813</v>
+      </c>
+      <c r="BB113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC113" s="10">
+        <v>0.99999820497503444</v>
+      </c>
+      <c r="BD113" s="10">
+        <v>2.9551291580315981E-4</v>
+      </c>
+      <c r="BE113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI113" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ113" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK113" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN114" s="16"/>
+      <c r="AO114" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP114" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ114" s="1">
+        <v>4.4859999999999997E-2</v>
+      </c>
+      <c r="AR114" s="10">
+        <f t="shared" si="34"/>
+        <v>6.3441620408057051E-2</v>
+      </c>
+      <c r="AS114" s="10">
+        <v>9.5560000000000006E-2</v>
+      </c>
+      <c r="AT114" s="10">
+        <f t="shared" si="35"/>
+        <v>0.13514224802037297</v>
+      </c>
+      <c r="AU114" s="10">
+        <f t="shared" si="36"/>
+        <v>0.13483893088580035</v>
+      </c>
+      <c r="AV114" s="10">
+        <f t="shared" si="37"/>
+        <v>3.0331713457262821E-4</v>
+      </c>
+      <c r="AW114" s="11">
+        <v>2.02</v>
+      </c>
+      <c r="AX114" s="11">
+        <f t="shared" si="38"/>
+        <v>1.01</v>
+      </c>
+      <c r="AY114" s="10">
+        <f t="shared" si="39"/>
+        <v>0.13483893088580035</v>
+      </c>
+      <c r="AZ114" s="10">
+        <f t="shared" si="40"/>
+        <v>0.87516106911419966</v>
+      </c>
+    </row>
+    <row r="115" spans="3:63" x14ac:dyDescent="0.25">
       <c r="D115" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
+      <c r="AN115" s="16"/>
+      <c r="AO115" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP115" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ115" s="1">
+        <v>6.4750000000000002E-2</v>
+      </c>
+      <c r="AR115" s="10">
+        <f t="shared" si="34"/>
+        <v>9.1570328163657913E-2</v>
+      </c>
+      <c r="AS115" s="10">
+        <v>0.13749</v>
+      </c>
+      <c r="AT115" s="10">
+        <f t="shared" si="35"/>
+        <v>0.19444022269067684</v>
+      </c>
+      <c r="AU115" s="10">
+        <f t="shared" si="36"/>
+        <v>0.19463437471978534</v>
+      </c>
+      <c r="AV115" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.9415202910849638E-4</v>
+      </c>
+      <c r="AW115" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="AX115" s="11">
+        <f t="shared" si="38"/>
+        <v>1.04</v>
+      </c>
+      <c r="AY115" s="10">
+        <f t="shared" si="39"/>
+        <v>0.19463437471978534</v>
+      </c>
+      <c r="AZ115" s="10">
+        <f t="shared" si="40"/>
+        <v>0.84536562528021464</v>
+      </c>
     </row>
-    <row r="116" spans="3:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:63" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D116" s="4" t="s">
         <v>59</v>
       </c>
@@ -57987,8 +59797,805 @@
         <f>ABS(2*PI()*E115)</f>
         <v>6.2831853071795862</v>
       </c>
+      <c r="AN116" s="16"/>
+      <c r="AO116" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP116" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ116" s="1">
+        <v>7.7409999999999993E-2</v>
+      </c>
+      <c r="AR116" s="10">
+        <f t="shared" si="34"/>
+        <v>0.10947427186330129</v>
+      </c>
+      <c r="AS116" s="10">
+        <v>0.16435</v>
+      </c>
+      <c r="AT116" s="10">
+        <f t="shared" si="35"/>
+        <v>0.23242599897601818</v>
+      </c>
+      <c r="AU116" s="10">
+        <f t="shared" si="36"/>
+        <v>0.23269421981471997</v>
+      </c>
+      <c r="AV116" s="10">
+        <f t="shared" si="37"/>
+        <v>-2.6822083870178814E-4</v>
+      </c>
+      <c r="AW116" s="11">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AX116" s="11">
+        <f t="shared" si="38"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AY116" s="10">
+        <f t="shared" si="39"/>
+        <v>0.23269421981471997</v>
+      </c>
+      <c r="AZ116" s="10">
+        <f t="shared" si="40"/>
+        <v>0.85730578018528014</v>
+      </c>
     </row>
-    <row r="138" spans="9:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN117" s="16"/>
+      <c r="AO117" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP117" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ117" s="1">
+        <v>8.7760000000000005E-2</v>
+      </c>
+      <c r="AR117" s="10">
+        <f t="shared" si="34"/>
+        <v>0.12411138223386284</v>
+      </c>
+      <c r="AS117" s="10">
+        <v>0.18643000000000001</v>
+      </c>
+      <c r="AT117" s="10">
+        <f t="shared" si="35"/>
+        <v>0.26365183443321616</v>
+      </c>
+      <c r="AU117" s="10">
+        <f t="shared" si="36"/>
+        <v>0.26380949601792486</v>
+      </c>
+      <c r="AV117" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.5766158470870151E-4</v>
+      </c>
+      <c r="AW117" s="11">
+        <v>2.29</v>
+      </c>
+      <c r="AX117" s="11">
+        <f t="shared" si="38"/>
+        <v>1.145</v>
+      </c>
+      <c r="AY117" s="10">
+        <f t="shared" si="39"/>
+        <v>0.26380949601792486</v>
+      </c>
+      <c r="AZ117" s="10">
+        <f t="shared" si="40"/>
+        <v>0.8811905039820751</v>
+      </c>
+    </row>
+    <row r="118" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN118" s="16"/>
+      <c r="AO118" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP118" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ118" s="1">
+        <v>9.937E-2</v>
+      </c>
+      <c r="AR118" s="10">
+        <f t="shared" si="34"/>
+        <v>0.14053040169301448</v>
+      </c>
+      <c r="AS118" s="10">
+        <v>0.21112</v>
+      </c>
+      <c r="AT118" s="10">
+        <f t="shared" si="35"/>
+        <v>0.29856876728820786</v>
+      </c>
+      <c r="AU118" s="10">
+        <f t="shared" si="36"/>
+        <v>0.29871271888934597</v>
+      </c>
+      <c r="AV118" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.4395160113811478E-4</v>
+      </c>
+      <c r="AW118" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="AX118" s="11">
+        <f t="shared" si="38"/>
+        <v>1.2</v>
+      </c>
+      <c r="AY118" s="10">
+        <f t="shared" si="39"/>
+        <v>0.29871271888934597</v>
+      </c>
+      <c r="AZ118" s="10">
+        <f t="shared" si="40"/>
+        <v>0.90128728111065404</v>
+      </c>
+    </row>
+    <row r="119" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN119" s="16"/>
+      <c r="AO119" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP119" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ119" s="1">
+        <v>0.10758</v>
+      </c>
+      <c r="AR119" s="10">
+        <f t="shared" si="34"/>
+        <v>0.15214109504009757</v>
+      </c>
+      <c r="AS119" s="10">
+        <v>0.22859000000000002</v>
+      </c>
+      <c r="AT119" s="10">
+        <f t="shared" si="35"/>
+        <v>0.32327507822286583</v>
+      </c>
+      <c r="AU119" s="10">
+        <f t="shared" si="36"/>
+        <v>0.32339449837034223</v>
+      </c>
+      <c r="AV119" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.1942014747640117E-4</v>
+      </c>
+      <c r="AW119" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="AX119" s="11">
+        <f t="shared" si="38"/>
+        <v>1.25</v>
+      </c>
+      <c r="AY119" s="10">
+        <f t="shared" si="39"/>
+        <v>0.32339449837034223</v>
+      </c>
+      <c r="AZ119" s="10">
+        <f t="shared" si="40"/>
+        <v>0.92660550162965771</v>
+      </c>
+    </row>
+    <row r="120" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN120" s="16"/>
+      <c r="AO120" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP120" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ120" s="1">
+        <v>0.12611</v>
+      </c>
+      <c r="AR120" s="10">
+        <f t="shared" si="34"/>
+        <v>0.17834647235087103</v>
+      </c>
+      <c r="AS120" s="10">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AT120" s="10">
+        <f t="shared" si="35"/>
+        <v>0.37900923471598952</v>
+      </c>
+      <c r="AU120" s="10">
+        <f t="shared" si="36"/>
+        <v>0.37910136484815732</v>
+      </c>
+      <c r="AV120" s="10">
+        <f t="shared" si="37"/>
+        <v>-9.2130132167800305E-5</v>
+      </c>
+      <c r="AW120" s="11">
+        <v>2.58</v>
+      </c>
+      <c r="AX120" s="11">
+        <f t="shared" si="38"/>
+        <v>1.29</v>
+      </c>
+      <c r="AY120" s="10">
+        <f t="shared" si="39"/>
+        <v>0.37910136484815732</v>
+      </c>
+      <c r="AZ120" s="10">
+        <f t="shared" si="40"/>
+        <v>0.91089863515184266</v>
+      </c>
+    </row>
+    <row r="121" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN121" s="16"/>
+      <c r="AO121" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP121" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ121" s="1">
+        <v>0.14072000000000001</v>
+      </c>
+      <c r="AR121" s="10">
+        <f t="shared" si="34"/>
+        <v>0.19900813249714197</v>
+      </c>
+      <c r="AS121" s="10">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AT121" s="10">
+        <f t="shared" si="35"/>
+        <v>0.42284985514955542</v>
+      </c>
+      <c r="AU121" s="10">
+        <f t="shared" si="36"/>
+        <v>0.42302350835818853</v>
+      </c>
+      <c r="AV121" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.7365320863310663E-4</v>
+      </c>
+      <c r="AW121" s="11">
+        <v>2.62</v>
+      </c>
+      <c r="AX121" s="11">
+        <f t="shared" si="38"/>
+        <v>1.31</v>
+      </c>
+      <c r="AY121" s="10">
+        <f t="shared" si="39"/>
+        <v>0.42302350835818853</v>
+      </c>
+      <c r="AZ121" s="10">
+        <f t="shared" si="40"/>
+        <v>0.88697649164181147</v>
+      </c>
+    </row>
+    <row r="122" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN122" s="16"/>
+      <c r="AO122" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP122" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ122" s="1">
+        <v>0.15796000000000002</v>
+      </c>
+      <c r="AR122" s="10">
+        <f t="shared" si="34"/>
+        <v>0.22338917431245414</v>
+      </c>
+      <c r="AS122" s="10">
+        <v>0.33568999999999999</v>
+      </c>
+      <c r="AT122" s="10">
+        <f t="shared" si="35"/>
+        <v>0.47473735075302431</v>
+      </c>
+      <c r="AU122" s="10">
+        <f t="shared" si="36"/>
+        <v>0.47485223896140127</v>
+      </c>
+      <c r="AV122" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.1488820837696201E-4</v>
+      </c>
+      <c r="AW122" s="11">
+        <v>2.74</v>
+      </c>
+      <c r="AX122" s="11">
+        <f t="shared" si="38"/>
+        <v>1.37</v>
+      </c>
+      <c r="AY122" s="10">
+        <f t="shared" si="39"/>
+        <v>0.47485223896140127</v>
+      </c>
+      <c r="AZ122" s="10">
+        <f t="shared" si="40"/>
+        <v>0.89514776103859883</v>
+      </c>
+    </row>
+    <row r="123" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN123" s="16"/>
+      <c r="AO123" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP123" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ123" s="1">
+        <v>0.17382</v>
+      </c>
+      <c r="AR123" s="10">
+        <f t="shared" si="34"/>
+        <v>0.2458186014116914</v>
+      </c>
+      <c r="AS123" s="10">
+        <v>0.36937000000000003</v>
+      </c>
+      <c r="AT123" s="10">
+        <f t="shared" si="35"/>
+        <v>0.5223680635337502</v>
+      </c>
+      <c r="AU123" s="10">
+        <f t="shared" si="36"/>
+        <v>0.52253226607085335</v>
+      </c>
+      <c r="AV123" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.6420253710314192E-4</v>
+      </c>
+      <c r="AW123" s="11">
+        <v>2.82</v>
+      </c>
+      <c r="AX123" s="11">
+        <f t="shared" si="38"/>
+        <v>1.41</v>
+      </c>
+      <c r="AY123" s="10">
+        <f t="shared" si="39"/>
+        <v>0.52253226607085335</v>
+      </c>
+      <c r="AZ123" s="10">
+        <f t="shared" si="40"/>
+        <v>0.88746773392914657</v>
+      </c>
+    </row>
+    <row r="124" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN124" s="16"/>
+      <c r="AO124" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP124" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ124" s="1">
+        <v>0.18605000000000002</v>
+      </c>
+      <c r="AR124" s="10">
+        <f t="shared" si="34"/>
+        <v>0.26311443327951439</v>
+      </c>
+      <c r="AS124" s="10">
+        <v>0.39545999999999998</v>
+      </c>
+      <c r="AT124" s="10">
+        <f t="shared" si="35"/>
+        <v>0.55926489537606416</v>
+      </c>
+      <c r="AU124" s="10">
+        <f t="shared" si="36"/>
+        <v>0.5592993992075872</v>
+      </c>
+      <c r="AV124" s="10">
+        <f t="shared" si="37"/>
+        <v>-3.4503831523036155E-5</v>
+      </c>
+      <c r="AW124" s="11">
+        <v>2.86</v>
+      </c>
+      <c r="AX124" s="11">
+        <f t="shared" si="38"/>
+        <v>1.43</v>
+      </c>
+      <c r="AY124" s="10">
+        <f t="shared" si="39"/>
+        <v>0.5592993992075872</v>
+      </c>
+      <c r="AZ124" s="10">
+        <f t="shared" si="40"/>
+        <v>0.87070060079241274</v>
+      </c>
+    </row>
+    <row r="125" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN125" s="16"/>
+      <c r="AO125" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP125" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ125" s="1">
+        <v>0.19800999999999999</v>
+      </c>
+      <c r="AR125" s="10">
+        <f t="shared" si="34"/>
+        <v>0.28002842748549656</v>
+      </c>
+      <c r="AS125" s="10">
+        <v>0.42082999999999998</v>
+      </c>
+      <c r="AT125" s="10">
+        <f>AS125*SQRT(2)</f>
+        <v>0.59514349345346962</v>
+      </c>
+      <c r="AU125" s="10">
+        <f t="shared" si="36"/>
+        <v>0.59525482948684605</v>
+      </c>
+      <c r="AV125" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.1133603337643017E-4</v>
+      </c>
+      <c r="AW125" s="11">
+        <v>2.92</v>
+      </c>
+      <c r="AX125" s="11">
+        <f t="shared" si="38"/>
+        <v>1.46</v>
+      </c>
+      <c r="AY125" s="10">
+        <f t="shared" si="39"/>
+        <v>0.59525482948684605</v>
+      </c>
+      <c r="AZ125" s="10">
+        <f t="shared" si="40"/>
+        <v>0.86474517051315392</v>
+      </c>
+    </row>
+    <row r="126" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN126" s="16"/>
+      <c r="AO126" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP126" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ126" s="1">
+        <v>0.20879</v>
+      </c>
+      <c r="AR126" s="10">
+        <f t="shared" si="34"/>
+        <v>0.29527364968787856</v>
+      </c>
+      <c r="AS126" s="1">
+        <v>0.44377</v>
+      </c>
+      <c r="AT126" s="10">
+        <f t="shared" si="35"/>
+        <v>0.62758555257430848</v>
+      </c>
+      <c r="AU126" s="10">
+        <f t="shared" si="36"/>
+        <v>0.62766281764825183</v>
+      </c>
+      <c r="AV126" s="10">
+        <f>AT126-AU126</f>
+        <v>-7.7265073943344476E-5</v>
+      </c>
+      <c r="AW126" s="1"/>
+      <c r="AX126" s="1"/>
+      <c r="AY126" s="10">
+        <f t="shared" si="39"/>
+        <v>0.62766281764825183</v>
+      </c>
+      <c r="AZ126" s="76">
+        <f>AX126-AY126</f>
+        <v>-0.62766281764825183</v>
+      </c>
+    </row>
+    <row r="127" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN127" s="16"/>
+      <c r="AO127" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP127" s="12">
+        <f>2*PI()*AO127</f>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ127" s="1">
+        <v>0.22219999999999998</v>
+      </c>
+      <c r="AR127" s="10">
+        <f t="shared" si="34"/>
+        <v>0.31423825355930174</v>
+      </c>
+      <c r="AS127" s="1">
+        <v>0.47226000000000001</v>
+      </c>
+      <c r="AT127" s="10">
+        <f t="shared" si="35"/>
+        <v>0.6678764969663179</v>
+      </c>
+      <c r="AU127" s="10">
+        <f t="shared" si="36"/>
+        <v>0.66797739290283886</v>
+      </c>
+      <c r="AV127" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.0089593652096163E-4</v>
+      </c>
+      <c r="AW127" s="1"/>
+      <c r="AX127" s="1"/>
+      <c r="AY127" s="10">
+        <f t="shared" si="39"/>
+        <v>0.66797739290283886</v>
+      </c>
+      <c r="AZ127" s="10">
+        <f t="shared" si="40"/>
+        <v>-0.66797739290283886</v>
+      </c>
+    </row>
+    <row r="128" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="AN128" s="16"/>
+      <c r="AO128" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP128" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ128" s="1">
+        <v>0.23432</v>
+      </c>
+      <c r="AR128" s="10">
+        <f t="shared" si="34"/>
+        <v>0.33137852193526368</v>
+      </c>
+      <c r="AS128" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="AT128" s="10">
+        <f t="shared" si="35"/>
+        <v>0.70427835406180139</v>
+      </c>
+      <c r="AU128" s="10">
+        <f t="shared" si="36"/>
+        <v>0.70441383228282373</v>
+      </c>
+      <c r="AV128" s="10">
+        <f t="shared" si="37"/>
+        <v>-1.3547822102233376E-4</v>
+      </c>
+      <c r="AW128" s="1"/>
+      <c r="AX128" s="1"/>
+      <c r="AY128" s="10">
+        <f t="shared" si="39"/>
+        <v>0.70441383228282373</v>
+      </c>
+      <c r="AZ128" s="10">
+        <f t="shared" si="40"/>
+        <v>-0.70441383228282373</v>
+      </c>
+    </row>
+    <row r="129" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN129" s="16"/>
+      <c r="AO129" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP129" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ129" s="1">
+        <v>0.22572999999999999</v>
+      </c>
+      <c r="AR129" s="10">
+        <f t="shared" si="34"/>
+        <v>0.31923042743447877</v>
+      </c>
+      <c r="AS129" s="1">
+        <v>0.48052999999999996</v>
+      </c>
+      <c r="AT129" s="10">
+        <f t="shared" si="35"/>
+        <v>0.67957204312714337</v>
+      </c>
+      <c r="AU129" s="10">
+        <f t="shared" si="36"/>
+        <v>0.67858965618760347</v>
+      </c>
+      <c r="AV129" s="10">
+        <f t="shared" si="37"/>
+        <v>9.8238693953989209E-4</v>
+      </c>
+      <c r="AW129" s="1"/>
+      <c r="AX129" s="1"/>
+      <c r="AY129" s="10">
+        <f t="shared" si="39"/>
+        <v>0.67858965618760347</v>
+      </c>
+      <c r="AZ129" s="10">
+        <f t="shared" si="40"/>
+        <v>-0.67858965618760347</v>
+      </c>
+    </row>
+    <row r="130" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN130" s="16"/>
+      <c r="AO130" s="1">
+        <v>1486</v>
+      </c>
+      <c r="AP130" s="12">
+        <f t="shared" si="33"/>
+        <v>9336.8133664688648</v>
+      </c>
+      <c r="AQ130" s="1">
+        <v>2.6112E-2</v>
+      </c>
+      <c r="AR130" s="10">
+        <f t="shared" si="34"/>
+        <v>3.6927944540686257E-2</v>
+      </c>
+      <c r="AS130" s="1">
+        <v>5.5579999999999997E-2</v>
+      </c>
+      <c r="AT130" s="10">
+        <f t="shared" si="35"/>
+        <v>7.8601989796696622E-2</v>
+      </c>
+      <c r="AU130" s="10">
+        <f t="shared" si="36"/>
+        <v>7.8476689508246281E-2</v>
+      </c>
+      <c r="AV130" s="10">
+        <f t="shared" si="37"/>
+        <v>1.253002884503418E-4</v>
+      </c>
+      <c r="AW130" s="1"/>
+      <c r="AX130" s="1"/>
+      <c r="AY130" s="10">
+        <f>AR130*$BC$111+$BD$111</f>
+        <v>7.8476689508246281E-2</v>
+      </c>
+      <c r="AZ130" s="10">
+        <f t="shared" si="40"/>
+        <v>-7.8476689508246281E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN131" s="16"/>
+    </row>
+    <row r="132" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN132" s="16"/>
+      <c r="AR132" s="1">
+        <v>31.32</v>
+      </c>
+      <c r="AS132" s="2">
+        <f>AR132/1000</f>
+        <v>3.1320000000000001E-2</v>
+      </c>
+      <c r="AT132" s="10">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="AU132" s="2">
+        <f>AT132/1000</f>
+        <v>6.6709999999999992E-2</v>
+      </c>
+      <c r="AW132" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX132" s="77"/>
+      <c r="AY132" s="77"/>
+    </row>
+    <row r="133" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN133" s="16"/>
+      <c r="AR133" s="1">
+        <v>39.762999999999998</v>
+      </c>
+      <c r="AS133" s="2">
+        <f t="shared" ref="AS133:AS149" si="41">AR133/1000</f>
+        <v>3.9763E-2</v>
+      </c>
+      <c r="AT133" s="10">
+        <v>84.7</v>
+      </c>
+      <c r="AU133" s="2">
+        <f t="shared" ref="AU133:AU150" si="42">AT133/1000</f>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="AW133" s="77"/>
+      <c r="AX133" s="77"/>
+      <c r="AY133" s="77"/>
+    </row>
+    <row r="134" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN134" s="16"/>
+      <c r="AR134" s="1">
+        <v>44.86</v>
+      </c>
+      <c r="AS134" s="2">
+        <f t="shared" si="41"/>
+        <v>4.4859999999999997E-2</v>
+      </c>
+      <c r="AT134" s="10">
+        <v>95.56</v>
+      </c>
+      <c r="AU134" s="2">
+        <f t="shared" si="42"/>
+        <v>9.5560000000000006E-2</v>
+      </c>
+      <c r="AW134" s="77"/>
+      <c r="AX134" s="77"/>
+      <c r="AY134" s="77"/>
+    </row>
+    <row r="135" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN135" s="16"/>
+      <c r="AR135" s="1">
+        <v>64.75</v>
+      </c>
+      <c r="AS135" s="2">
+        <f t="shared" si="41"/>
+        <v>6.4750000000000002E-2</v>
+      </c>
+      <c r="AT135" s="10">
+        <v>137.49</v>
+      </c>
+      <c r="AU135" s="2">
+        <f t="shared" si="42"/>
+        <v>0.13749</v>
+      </c>
+      <c r="AW135" s="77"/>
+      <c r="AX135" s="77"/>
+      <c r="AY135" s="77"/>
+    </row>
+    <row r="136" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN136" s="16"/>
+      <c r="AR136" s="1">
+        <v>77.41</v>
+      </c>
+      <c r="AS136" s="2">
+        <f t="shared" si="41"/>
+        <v>7.7409999999999993E-2</v>
+      </c>
+      <c r="AT136" s="10">
+        <v>164.35</v>
+      </c>
+      <c r="AU136" s="2">
+        <f t="shared" si="42"/>
+        <v>0.16435</v>
+      </c>
+    </row>
+    <row r="137" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN137" s="16"/>
+      <c r="AR137" s="1">
+        <v>87.76</v>
+      </c>
+      <c r="AS137" s="2">
+        <f t="shared" si="41"/>
+        <v>8.7760000000000005E-2</v>
+      </c>
+      <c r="AT137" s="10">
+        <v>186.43</v>
+      </c>
+      <c r="AU137" s="2">
+        <f t="shared" si="42"/>
+        <v>0.18643000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="9:52" ht="18" x14ac:dyDescent="0.25">
       <c r="I138" s="54" t="s">
         <v>30</v>
       </c>
@@ -57996,8 +60603,23 @@
       <c r="K138" s="54"/>
       <c r="L138" s="54"/>
       <c r="M138" s="54"/>
+      <c r="AN138" s="16"/>
+      <c r="AR138" s="1">
+        <v>99.37</v>
+      </c>
+      <c r="AS138" s="2">
+        <f t="shared" si="41"/>
+        <v>9.937E-2</v>
+      </c>
+      <c r="AT138" s="10">
+        <v>211.12</v>
+      </c>
+      <c r="AU138" s="2">
+        <f t="shared" si="42"/>
+        <v>0.21112</v>
+      </c>
     </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:52" x14ac:dyDescent="0.25">
       <c r="I139" s="49" t="s">
         <v>31</v>
       </c>
@@ -58006,8 +60628,23 @@
         <v>14</v>
       </c>
       <c r="M139" s="55"/>
+      <c r="AN139" s="16"/>
+      <c r="AR139" s="1">
+        <v>107.58</v>
+      </c>
+      <c r="AS139" s="2">
+        <f t="shared" si="41"/>
+        <v>0.10758</v>
+      </c>
+      <c r="AT139" s="10">
+        <v>228.59</v>
+      </c>
+      <c r="AU139" s="2">
+        <f t="shared" si="42"/>
+        <v>0.22859000000000002</v>
+      </c>
     </row>
-    <row r="140" spans="9:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:52" ht="18" x14ac:dyDescent="0.25">
       <c r="I140" s="27" t="s">
         <v>32</v>
       </c>
@@ -58022,8 +60659,23 @@
         <f>J140</f>
         <v>1.2566370614359173E-6</v>
       </c>
+      <c r="AN140" s="16"/>
+      <c r="AR140" s="1">
+        <v>126.11</v>
+      </c>
+      <c r="AS140" s="2">
+        <f t="shared" si="41"/>
+        <v>0.12611</v>
+      </c>
+      <c r="AT140" s="10">
+        <v>268</v>
+      </c>
+      <c r="AU140" s="2">
+        <f t="shared" si="42"/>
+        <v>0.26800000000000002</v>
+      </c>
     </row>
-    <row r="141" spans="9:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:52" ht="18" x14ac:dyDescent="0.25">
       <c r="I141" s="27" t="s">
         <v>33</v>
       </c>
@@ -58038,8 +60690,23 @@
         <f>(AE92*J145)/(J146*M146*M147*E94)</f>
         <v>1.2021754391057407E-6</v>
       </c>
+      <c r="AN141" s="16"/>
+      <c r="AR141" s="1">
+        <v>140.72</v>
+      </c>
+      <c r="AS141" s="2">
+        <f t="shared" si="41"/>
+        <v>0.14072000000000001</v>
+      </c>
+      <c r="AT141" s="10">
+        <v>299</v>
+      </c>
+      <c r="AU141" s="2">
+        <f t="shared" si="42"/>
+        <v>0.29899999999999999</v>
+      </c>
     </row>
-    <row r="142" spans="9:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:52" ht="18" x14ac:dyDescent="0.25">
       <c r="I142" s="27" t="s">
         <v>35</v>
       </c>
@@ -58054,8 +60721,23 @@
         <f>1.45*10^-8</f>
         <v>1.4499999999999999E-8</v>
       </c>
+      <c r="AN142" s="16"/>
+      <c r="AR142" s="1">
+        <v>157.96</v>
+      </c>
+      <c r="AS142" s="2">
+        <f t="shared" si="41"/>
+        <v>0.15796000000000002</v>
+      </c>
+      <c r="AT142" s="10">
+        <v>335.69</v>
+      </c>
+      <c r="AU142" s="2">
+        <f t="shared" si="42"/>
+        <v>0.33568999999999999</v>
+      </c>
     </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:52" x14ac:dyDescent="0.25">
       <c r="I143" s="27" t="s">
         <v>36</v>
       </c>
@@ -58070,8 +60752,40 @@
         <f>ABS(M140-M141)/M140</f>
         <v>4.3339182013257767E-2</v>
       </c>
+      <c r="AN143" s="16"/>
+      <c r="AR143" s="1">
+        <v>173.82</v>
+      </c>
+      <c r="AS143" s="2">
+        <f t="shared" si="41"/>
+        <v>0.17382</v>
+      </c>
+      <c r="AT143" s="10">
+        <v>369.37</v>
+      </c>
+      <c r="AU143" s="2">
+        <f t="shared" si="42"/>
+        <v>0.36937000000000003</v>
+      </c>
     </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:52" x14ac:dyDescent="0.25">
+      <c r="AN144" s="16"/>
+      <c r="AR144" s="1">
+        <v>186.05</v>
+      </c>
+      <c r="AS144" s="2">
+        <f t="shared" si="41"/>
+        <v>0.18605000000000002</v>
+      </c>
+      <c r="AT144" s="10">
+        <v>395.46</v>
+      </c>
+      <c r="AU144" s="2">
+        <f t="shared" si="42"/>
+        <v>0.39545999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="9:47" x14ac:dyDescent="0.25">
       <c r="I145" s="28" t="s">
         <v>19</v>
       </c>
@@ -58085,8 +60799,23 @@
       <c r="M145" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="AN145" s="16"/>
+      <c r="AR145" s="1">
+        <v>198.01</v>
+      </c>
+      <c r="AS145" s="2">
+        <f t="shared" si="41"/>
+        <v>0.19800999999999999</v>
+      </c>
+      <c r="AT145" s="10">
+        <v>420.83</v>
+      </c>
+      <c r="AU145" s="2">
+        <f t="shared" si="42"/>
+        <v>0.42082999999999998</v>
+      </c>
     </row>
-    <row r="146" spans="9:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:47" ht="17.25" x14ac:dyDescent="0.25">
       <c r="I146" s="28" t="s">
         <v>17</v>
       </c>
@@ -58101,8 +60830,23 @@
         <f>M145^2*PI()/4</f>
         <v>1.3202543126711107E-3</v>
       </c>
+      <c r="AN146" s="16"/>
+      <c r="AR146" s="1">
+        <v>208.79</v>
+      </c>
+      <c r="AS146" s="2">
+        <f t="shared" si="41"/>
+        <v>0.20879</v>
+      </c>
+      <c r="AT146" s="1">
+        <v>443.77</v>
+      </c>
+      <c r="AU146" s="2">
+        <f t="shared" si="42"/>
+        <v>0.44377</v>
+      </c>
     </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:47" x14ac:dyDescent="0.25">
       <c r="K147" s="53" t="s">
         <v>37</v>
       </c>
@@ -58110,9 +60854,259 @@
       <c r="M147" s="1">
         <v>300</v>
       </c>
+      <c r="AN147" s="16"/>
+      <c r="AR147" s="1">
+        <v>222.2</v>
+      </c>
+      <c r="AS147" s="2">
+        <f t="shared" si="41"/>
+        <v>0.22219999999999998</v>
+      </c>
+      <c r="AT147" s="1">
+        <v>472.26</v>
+      </c>
+      <c r="AU147" s="2">
+        <f t="shared" si="42"/>
+        <v>0.47226000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN148" s="16"/>
+      <c r="AR148" s="1">
+        <v>234.32</v>
+      </c>
+      <c r="AS148" s="2">
+        <f t="shared" si="41"/>
+        <v>0.23432</v>
+      </c>
+      <c r="AT148" s="1">
+        <v>498</v>
+      </c>
+      <c r="AU148" s="2">
+        <f t="shared" si="42"/>
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="149" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN149" s="16"/>
+      <c r="AR149" s="1">
+        <v>225.73</v>
+      </c>
+      <c r="AS149" s="2">
+        <f t="shared" si="41"/>
+        <v>0.22572999999999999</v>
+      </c>
+      <c r="AT149" s="1">
+        <v>480.53</v>
+      </c>
+      <c r="AU149" s="2">
+        <f t="shared" si="42"/>
+        <v>0.48052999999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN150" s="16"/>
+      <c r="AR150" s="1">
+        <v>26.111999999999998</v>
+      </c>
+      <c r="AS150" s="2">
+        <f>AR150/1000</f>
+        <v>2.6112E-2</v>
+      </c>
+      <c r="AT150" s="1">
+        <v>55.58</v>
+      </c>
+      <c r="AU150" s="2">
+        <f t="shared" si="42"/>
+        <v>5.5579999999999997E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN151" s="16"/>
+    </row>
+    <row r="152" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN152" s="16"/>
+    </row>
+    <row r="153" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN153" s="16"/>
+    </row>
+    <row r="154" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN154" s="16"/>
+    </row>
+    <row r="155" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN155" s="16"/>
+    </row>
+    <row r="156" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN156" s="16"/>
+    </row>
+    <row r="157" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN157" s="16"/>
+    </row>
+    <row r="158" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN158" s="16"/>
+    </row>
+    <row r="159" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN159" s="16"/>
+    </row>
+    <row r="160" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AN160" s="16"/>
+    </row>
+    <row r="161" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN161" s="16"/>
+    </row>
+    <row r="162" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN162" s="16"/>
+    </row>
+    <row r="163" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN163" s="16"/>
+    </row>
+    <row r="164" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN164" s="16"/>
+    </row>
+    <row r="165" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN165" s="16"/>
+    </row>
+    <row r="166" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN166" s="16"/>
+    </row>
+    <row r="167" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN167" s="16"/>
+    </row>
+    <row r="168" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN168" s="16"/>
+    </row>
+    <row r="169" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN169" s="16"/>
+    </row>
+    <row r="170" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN170" s="16"/>
+    </row>
+    <row r="171" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN171" s="16"/>
+    </row>
+    <row r="172" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN172" s="16"/>
+    </row>
+    <row r="173" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN173" s="16"/>
+    </row>
+    <row r="174" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN174" s="16"/>
+    </row>
+    <row r="175" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN175" s="16"/>
+    </row>
+    <row r="176" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN176" s="16"/>
+    </row>
+    <row r="177" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN177" s="16"/>
+    </row>
+    <row r="178" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN178" s="16"/>
+    </row>
+    <row r="179" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN179" s="16"/>
+    </row>
+    <row r="180" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN180" s="16"/>
+    </row>
+    <row r="181" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN181" s="16"/>
+    </row>
+    <row r="182" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN182" s="16"/>
+    </row>
+    <row r="183" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN183" s="16"/>
+    </row>
+    <row r="184" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN184" s="16"/>
+    </row>
+    <row r="185" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN185" s="16"/>
+    </row>
+    <row r="186" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN186" s="16"/>
+    </row>
+    <row r="187" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN187" s="16"/>
+    </row>
+    <row r="188" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN188" s="16"/>
+    </row>
+    <row r="189" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN189" s="16"/>
+    </row>
+    <row r="190" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN190" s="16"/>
+    </row>
+    <row r="191" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN191" s="16"/>
+    </row>
+    <row r="192" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN192" s="16"/>
+    </row>
+    <row r="193" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN193" s="16"/>
+    </row>
+    <row r="194" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN194" s="16"/>
+    </row>
+    <row r="195" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN195" s="16"/>
+    </row>
+    <row r="196" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN196" s="16"/>
+    </row>
+    <row r="197" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN197" s="16"/>
+    </row>
+    <row r="198" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN198" s="16"/>
+    </row>
+    <row r="199" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN199" s="16"/>
+    </row>
+    <row r="200" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN200" s="16"/>
+    </row>
+    <row r="201" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN201" s="16"/>
+    </row>
+    <row r="202" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN202" s="16"/>
+    </row>
+    <row r="203" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN203" s="16"/>
+    </row>
+    <row r="204" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN204" s="16"/>
+    </row>
+    <row r="205" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN205" s="16"/>
+    </row>
+    <row r="206" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN206" s="16"/>
+    </row>
+    <row r="207" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN207" s="16"/>
+    </row>
+    <row r="208" spans="40:40" x14ac:dyDescent="0.25">
+      <c r="AN208" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="73">
+    <mergeCell ref="BB110:BE110"/>
+    <mergeCell ref="BH110:BK110"/>
+    <mergeCell ref="AW132:AY135"/>
+    <mergeCell ref="AO109:AZ109"/>
+    <mergeCell ref="AO110:AO111"/>
+    <mergeCell ref="AP110:AP111"/>
+    <mergeCell ref="AQ110:AQ111"/>
+    <mergeCell ref="AR110:AR111"/>
+    <mergeCell ref="AS110:AV110"/>
+    <mergeCell ref="AW110:AZ110"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -58132,6 +61126,8 @@
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="F92:F93"/>
     <mergeCell ref="G92:G93"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
     <mergeCell ref="T91:W91"/>
     <mergeCell ref="AD91:AG91"/>
     <mergeCell ref="I138:M138"/>
@@ -58160,8 +61156,6 @@
     <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="BF2:BI2"/>
     <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="D3:D4"/>
@@ -59152,7 +62146,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -59161,7 +62155,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="M2:P2"/>
@@ -59177,6 +62170,7 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -60097,8 +63091,8 @@
   </sheetPr>
   <dimension ref="B2:BB43"/>
   <sheetViews>
-    <sheetView topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61334,15 +64328,15 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="H13:I13"/>
@@ -61374,8 +64368,8 @@
   </sheetPr>
   <dimension ref="C2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
